--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_7_36.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_7_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2390265.198604682</v>
+        <v>2389538.599733456</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5851605.615330305</v>
+        <v>5851605.615330303</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>864456.6793124469</v>
+        <v>864456.6793124471</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7284592.772190748</v>
+        <v>7284592.772190747</v>
       </c>
     </row>
     <row r="11">
@@ -661,7 +661,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D2" t="n">
         <v>0.4192906078700389</v>
@@ -670,16 +670,16 @@
         <v>10.19681332827224</v>
       </c>
       <c r="F2" t="n">
-        <v>168.2999058868837</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G2" t="n">
         <v>4.641001266096112</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.71494018546349</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C3" t="n">
         <v>132.6551205385437</v>
@@ -746,16 +746,16 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E3" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>71.58463253104256</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>70.03974083464111</v>
+        <v>34.50523717020259</v>
       </c>
       <c r="I3" t="n">
         <v>20.54110546596223</v>
@@ -794,7 +794,7 @@
         <v>157.7484451748619</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V3" t="n">
         <v>211.5744117368965</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>105.7437518964924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1.733818067947686</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>115.1825854367171</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
         <v>184.5278504388888</v>
@@ -879,10 +879,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,10 +898,10 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C5" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
         <v>410.1968133282722</v>
@@ -910,7 +910,7 @@
         <v>16.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>157.783931819131</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>342.4038493936524</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I6" t="n">
-        <v>20.54110546596223</v>
+        <v>20.54110546596236</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>99.92886485183892</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
         <v>148.1113806425979</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>228.7792588637677</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C8" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4192906078700389</v>
+        <v>55.1010297467805</v>
       </c>
       <c r="E8" t="n">
         <v>10.19681332827224</v>
       </c>
       <c r="F8" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
         <v>4.641001266096112</v>
@@ -1186,10 +1186,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>20.1762715284353</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1299,19 +1299,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>28.0149076090959</v>
       </c>
       <c r="G10" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>226.1546233572803</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>376.6200261415065</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C11" t="n">
-        <v>376.5244030535245</v>
+        <v>376.5244030535253</v>
       </c>
       <c r="D11" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E11" t="n">
-        <v>380.6978716019342</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F11" t="n">
         <v>387.3211661995113</v>
@@ -1387,10 +1387,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H11" t="n">
-        <v>278.3004706722223</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I11" t="n">
-        <v>55.98930332975951</v>
+        <v>55.98930332975957</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>104.4293227275021</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T11" t="n">
-        <v>190.4854774862717</v>
+        <v>190.4854774862718</v>
       </c>
       <c r="U11" t="n">
-        <v>224.9909450967469</v>
+        <v>224.990945096747</v>
       </c>
       <c r="V11" t="n">
         <v>316.8402373905461</v>
@@ -1435,7 +1435,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X11" t="n">
-        <v>367.1380221263989</v>
+        <v>367.138022126399</v>
       </c>
       <c r="Y11" t="n">
         <v>367.4283645950528</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>156.3237676037659</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>139.8834969875626</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D13" t="n">
-        <v>128.400756503981</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E13" t="n">
         <v>129.8027652540257</v>
       </c>
       <c r="F13" t="n">
-        <v>133.4858729041766</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G13" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>118.6124389162598</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I13" t="n">
-        <v>85.68364371037904</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U13" t="n">
-        <v>250.471224252999</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>197.3199191981189</v>
       </c>
       <c r="W13" t="n">
-        <v>105.1669078668628</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X13" t="n">
-        <v>206.4614817925754</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="14">
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>376.6200261415065</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C14" t="n">
-        <v>376.5244030535245</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D14" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E14" t="n">
-        <v>380.6978716019342</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F14" t="n">
         <v>387.3211661995113</v>
@@ -1624,10 +1624,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H14" t="n">
-        <v>278.3004706722211</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I14" t="n">
-        <v>55.98930332976064</v>
+        <v>55.98930332975957</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>104.4293227275021</v>
+        <v>104.4293227275031</v>
       </c>
       <c r="T14" t="n">
-        <v>190.4854774862717</v>
+        <v>190.4854774862718</v>
       </c>
       <c r="U14" t="n">
-        <v>224.9909450967469</v>
+        <v>224.990945096747</v>
       </c>
       <c r="V14" t="n">
         <v>316.8402373905461</v>
@@ -1672,7 +1672,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X14" t="n">
-        <v>367.1380221263989</v>
+        <v>367.138022126399</v>
       </c>
       <c r="Y14" t="n">
         <v>367.4283645950528</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>156.3237676037659</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F16" t="n">
-        <v>133.4858729041766</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>92.62562335129019</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>54.92104941501628</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S16" t="n">
         <v>155.0289087125508</v>
@@ -1821,16 +1821,16 @@
         <v>207.6543099067269</v>
       </c>
       <c r="U16" t="n">
-        <v>250.471224252999</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V16" t="n">
-        <v>241.6479458835352</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W16" t="n">
-        <v>246.7800261198763</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X16" t="n">
-        <v>206.4614817925754</v>
+        <v>100.0409667956633</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>376.6200261415065</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C17" t="n">
-        <v>376.5244030535245</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D17" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E17" t="n">
-        <v>380.6978716019342</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F17" t="n">
         <v>387.3211661995113</v>
@@ -1861,10 +1861,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H17" t="n">
-        <v>278.3004706722211</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I17" t="n">
-        <v>55.98930332975951</v>
+        <v>55.98930332975957</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>104.4293227275021</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T17" t="n">
-        <v>190.4854774862717</v>
+        <v>190.4854774862718</v>
       </c>
       <c r="U17" t="n">
-        <v>224.9909450967469</v>
+        <v>224.990945096747</v>
       </c>
       <c r="V17" t="n">
         <v>316.8402373905461</v>
@@ -1909,7 +1909,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X17" t="n">
-        <v>367.1380221263989</v>
+        <v>367.138022126399</v>
       </c>
       <c r="Y17" t="n">
         <v>367.4283645950528</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C19" t="n">
-        <v>139.8834969875626</v>
+        <v>113.2692892302228</v>
       </c>
       <c r="D19" t="n">
-        <v>128.400756503981</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>129.8027652540257</v>
       </c>
       <c r="F19" t="n">
-        <v>133.4858729041766</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>118.6124389162598</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>85.68364371037904</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>54.92104941501628</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U19" t="n">
-        <v>250.471224252999</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V19" t="n">
-        <v>241.6479458835352</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W19" t="n">
-        <v>246.7800261198763</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y19" t="n">
-        <v>79.63204455732705</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="20">
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>376.6200261415065</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C20" t="n">
-        <v>376.5244030535245</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D20" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E20" t="n">
-        <v>380.6978716019342</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F20" t="n">
         <v>387.3211661995113</v>
@@ -2098,10 +2098,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H20" t="n">
-        <v>278.3004706722211</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I20" t="n">
-        <v>55.98930332975951</v>
+        <v>55.98930332975957</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>104.4293227275021</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T20" t="n">
-        <v>190.4854774862717</v>
+        <v>190.4854774862723</v>
       </c>
       <c r="U20" t="n">
-        <v>224.9909450967469</v>
+        <v>224.990945096747</v>
       </c>
       <c r="V20" t="n">
         <v>316.8402373905461</v>
@@ -2146,7 +2146,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X20" t="n">
-        <v>367.1380221263989</v>
+        <v>367.138022126399</v>
       </c>
       <c r="Y20" t="n">
         <v>367.4283645950528</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>156.3237676037659</v>
+        <v>104.4834163879007</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D22" t="n">
-        <v>128.400756503981</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>118.6124389162598</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>85.68364371037904</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>54.92104941501628</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>155.0289087125508</v>
@@ -2295,19 +2295,19 @@
         <v>207.6543099067269</v>
       </c>
       <c r="U22" t="n">
-        <v>250.471224252999</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V22" t="n">
-        <v>241.6479458835352</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W22" t="n">
-        <v>246.7800261198763</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y22" t="n">
-        <v>99.87613891742218</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="23">
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>376.6200261415065</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C23" t="n">
-        <v>376.5244030535245</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D23" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E23" t="n">
-        <v>380.6978716019342</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F23" t="n">
         <v>387.3211661995113</v>
@@ -2335,10 +2335,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H23" t="n">
-        <v>278.3004706722211</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I23" t="n">
-        <v>55.98930332975951</v>
+        <v>55.98930332975957</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>104.4293227275021</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T23" t="n">
-        <v>190.4854774862717</v>
+        <v>190.4854774862718</v>
       </c>
       <c r="U23" t="n">
-        <v>224.9909450967469</v>
+        <v>224.990945096747</v>
       </c>
       <c r="V23" t="n">
         <v>316.8402373905461</v>
@@ -2383,7 +2383,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X23" t="n">
-        <v>367.1380221263989</v>
+        <v>367.1380221263995</v>
       </c>
       <c r="Y23" t="n">
         <v>367.4283645950528</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>156.3237676037659</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D25" t="n">
-        <v>128.400756503981</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>133.4858729041766</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>118.6124389162598</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>85.68364371037904</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U25" t="n">
-        <v>250.471224252999</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V25" t="n">
-        <v>166.7713693408905</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W25" t="n">
-        <v>246.7800261198763</v>
+        <v>194.9396749040112</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y25" t="n">
         <v>192.9893998987849</v>
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>376.6200261415065</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C26" t="n">
-        <v>376.5244030535245</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D26" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E26" t="n">
-        <v>380.6978716019342</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F26" t="n">
         <v>387.3211661995113</v>
@@ -2572,10 +2572,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H26" t="n">
-        <v>278.3004706722211</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I26" t="n">
-        <v>55.98930332976064</v>
+        <v>55.98930332975957</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>104.4293227275021</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T26" t="n">
-        <v>190.4854774862717</v>
+        <v>190.4854774862718</v>
       </c>
       <c r="U26" t="n">
-        <v>224.9909450967469</v>
+        <v>224.990945096747</v>
       </c>
       <c r="V26" t="n">
         <v>316.8402373905461</v>
@@ -2620,7 +2620,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X26" t="n">
-        <v>367.1380221263989</v>
+        <v>367.138022126399</v>
       </c>
       <c r="Y26" t="n">
         <v>367.4283645950528</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>156.3237676037659</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C28" t="n">
-        <v>139.8834969875626</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D28" t="n">
-        <v>128.400756503981</v>
+        <v>103.1885574966858</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>133.4858729041766</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>85.68364371037904</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>207.6543099067269</v>
       </c>
       <c r="U28" t="n">
-        <v>250.471224252999</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V28" t="n">
-        <v>145.9278021304211</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X28" t="n">
-        <v>206.4614817925754</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="29">
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>376.6200261415066</v>
+        <v>376.6200261415065</v>
       </c>
       <c r="C29" t="n">
-        <v>376.5244030535246</v>
+        <v>376.5244030535245</v>
       </c>
       <c r="D29" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E29" t="n">
-        <v>380.6978716019343</v>
+        <v>380.6978716019342</v>
       </c>
       <c r="F29" t="n">
         <v>387.3211661995113</v>
@@ -2809,10 +2809,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H29" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722211</v>
       </c>
       <c r="I29" t="n">
-        <v>55.98930332975957</v>
+        <v>55.98930332976064</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>104.4293227275022</v>
+        <v>104.4293227275021</v>
       </c>
       <c r="T29" t="n">
-        <v>190.4854774862718</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U29" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967469</v>
       </c>
       <c r="V29" t="n">
         <v>316.8402373905461</v>
@@ -2857,7 +2857,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X29" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263989</v>
       </c>
       <c r="Y29" t="n">
         <v>367.4283645950528</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>156.323767603766</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C31" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>40.43540902399125</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>85.6836437103791</v>
+        <v>33.12209635668191</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.92104941501635</v>
+        <v>54.92104941501629</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U31" t="n">
-        <v>250.4712242529991</v>
+        <v>250.471224252999</v>
       </c>
       <c r="V31" t="n">
-        <v>241.6479458835353</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W31" t="n">
-        <v>246.7800261198764</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X31" t="n">
-        <v>206.4614817925755</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y31" t="n">
         <v>192.9893998987849</v>
@@ -3189,25 +3189,25 @@
         <v>156.3237676037659</v>
       </c>
       <c r="C34" t="n">
-        <v>139.8834969875626</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>128.400756503981</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>133.4858729041766</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>33.12209635668191</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,19 +3237,19 @@
         <v>54.92104941501629</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>250.471224252999</v>
       </c>
       <c r="V34" t="n">
         <v>241.6479458835352</v>
       </c>
       <c r="W34" t="n">
-        <v>242.8712347828297</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X34" t="n">
         <v>206.4614817925754</v>
@@ -3286,7 +3286,7 @@
         <v>278.3004706722211</v>
       </c>
       <c r="I35" t="n">
-        <v>55.98930332976064</v>
+        <v>55.98930332975951</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>104.4293227275021</v>
       </c>
       <c r="T35" t="n">
-        <v>190.4854774862717</v>
+        <v>190.4854774862732</v>
       </c>
       <c r="U35" t="n">
         <v>224.9909450967469</v>
@@ -3426,16 +3426,16 @@
         <v>156.3237676037659</v>
       </c>
       <c r="C37" t="n">
-        <v>139.8834969875626</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>128.400756503981</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>3.844808907147953</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G37" t="n">
         <v>136.078945437374</v>
@@ -3480,19 +3480,19 @@
         <v>207.6543099067269</v>
       </c>
       <c r="U37" t="n">
-        <v>90.11547326893566</v>
+        <v>250.471224252999</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W37" t="n">
         <v>246.7800261198763</v>
       </c>
       <c r="X37" t="n">
-        <v>206.4614817925754</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3663,7 +3663,7 @@
         <v>156.3237676037659</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>85.68364371037904</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>54.92104941501628</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>155.0289087125508</v>
+        <v>103.1885574966865</v>
       </c>
       <c r="T40" t="n">
         <v>207.6543099067269</v>
@@ -3729,7 +3729,7 @@
         <v>206.4614817925754</v>
       </c>
       <c r="Y40" t="n">
-        <v>4.348907107713367</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="41">
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>406.1189678678445</v>
       </c>
       <c r="C41" t="n">
-        <v>271.338631283351</v>
+        <v>406.0233447798625</v>
       </c>
       <c r="D41" t="n">
         <v>400.41929060787</v>
@@ -3751,16 +3751,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>416.8201079258492</v>
       </c>
       <c r="G41" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985591</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505639</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>379.922697856183</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>396.6369638527369</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>396.9273063213907</v>
       </c>
     </row>
     <row r="42">
@@ -3900,19 +3900,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>54.68688746169129</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>79.20507481715916</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678445</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798625</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
         <v>400.41929060787</v>
@@ -3988,16 +3988,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258492</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>404.6410012660961</v>
+        <v>355.4445328256823</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985591</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609751</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126097</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>254.4898868230849</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>283.7777510779974</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>396.6369638527369</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213907</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -4140,22 +4140,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>196.7357836151902</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>27.77250173713467</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>940.6105970915582</v>
+        <v>139.0305262085984</v>
       </c>
       <c r="C2" t="n">
-        <v>530.4860064048283</v>
+        <v>132.9463395622726</v>
       </c>
       <c r="D2" t="n">
-        <v>530.0624805382929</v>
+        <v>132.5228136957372</v>
       </c>
       <c r="E2" t="n">
-        <v>519.7626690955937</v>
+        <v>122.223002253038</v>
       </c>
       <c r="F2" t="n">
-        <v>349.7627641593475</v>
+        <v>105.2329942471296</v>
       </c>
       <c r="G2" t="n">
-        <v>345.0748840925838</v>
+        <v>100.5451141803658</v>
       </c>
       <c r="H2" t="n">
-        <v>34.16638672030177</v>
+        <v>100.5451141803658</v>
       </c>
       <c r="I2" t="n">
-        <v>34.16638672030177</v>
+        <v>34.16638672030171</v>
       </c>
       <c r="J2" t="n">
-        <v>118.7312222285934</v>
+        <v>288.351858188056</v>
       </c>
       <c r="K2" t="n">
-        <v>541.5402578923276</v>
+        <v>711.1608938517896</v>
       </c>
       <c r="L2" t="n">
-        <v>964.3492935560619</v>
+        <v>1133.969929515523</v>
       </c>
       <c r="M2" t="n">
-        <v>1387.158329219796</v>
+        <v>1556.778965179257</v>
       </c>
       <c r="N2" t="n">
-        <v>1387.158329219796</v>
+        <v>1667.762690325521</v>
       </c>
       <c r="O2" t="n">
-        <v>1387.158329219796</v>
+        <v>1667.762690325521</v>
       </c>
       <c r="P2" t="n">
-        <v>1387.158329219796</v>
+        <v>1667.762690325521</v>
       </c>
       <c r="Q2" t="n">
-        <v>1708.319336015088</v>
+        <v>1667.762690325521</v>
       </c>
       <c r="R2" t="n">
-        <v>1708.319336015088</v>
+        <v>1708.319336015086</v>
       </c>
       <c r="S2" t="n">
-        <v>1573.038260809189</v>
+        <v>1573.038260809186</v>
       </c>
       <c r="T2" t="n">
-        <v>1350.831776756048</v>
+        <v>1350.831776756045</v>
       </c>
       <c r="U2" t="n">
-        <v>1350.831776756048</v>
+        <v>1350.831776756045</v>
       </c>
       <c r="V2" t="n">
-        <v>1350.831776756048</v>
+        <v>1350.831776756045</v>
       </c>
       <c r="W2" t="n">
-        <v>1350.831776756048</v>
+        <v>1350.831776756045</v>
       </c>
       <c r="X2" t="n">
-        <v>1350.831776756048</v>
+        <v>950.1883789249978</v>
       </c>
       <c r="Y2" t="n">
-        <v>1350.831776756048</v>
+        <v>549.2517058730879</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>678.3148255484905</v>
+        <v>340.66098205112</v>
       </c>
       <c r="C3" t="n">
-        <v>544.3197542974362</v>
+        <v>206.6659108000657</v>
       </c>
       <c r="D3" t="n">
-        <v>427.4225965168287</v>
+        <v>89.76875301945809</v>
       </c>
       <c r="E3" t="n">
-        <v>306.9297805091567</v>
+        <v>89.76875301945809</v>
       </c>
       <c r="F3" t="n">
-        <v>197.9699006916613</v>
+        <v>89.76875301945809</v>
       </c>
       <c r="G3" t="n">
-        <v>125.6621910643455</v>
+        <v>89.76875301945809</v>
       </c>
       <c r="H3" t="n">
-        <v>54.91497810006159</v>
+        <v>54.91497810006153</v>
       </c>
       <c r="I3" t="n">
-        <v>34.16638672030177</v>
+        <v>34.16638672030171</v>
       </c>
       <c r="J3" t="n">
-        <v>60.48824497727185</v>
+        <v>226.979244282935</v>
       </c>
       <c r="K3" t="n">
-        <v>483.2972806410061</v>
+        <v>649.7882799466686</v>
       </c>
       <c r="L3" t="n">
-        <v>906.1063163047404</v>
+        <v>649.7882799466686</v>
       </c>
       <c r="M3" t="n">
-        <v>906.1063163047404</v>
+        <v>649.7882799466686</v>
       </c>
       <c r="N3" t="n">
-        <v>1328.915351968475</v>
+        <v>649.7882799466686</v>
       </c>
       <c r="O3" t="n">
-        <v>1328.915351968475</v>
+        <v>906.1063163047387</v>
       </c>
       <c r="P3" t="n">
-        <v>1328.915351968475</v>
+        <v>1328.915351968472</v>
       </c>
       <c r="Q3" t="n">
-        <v>1678.759816652458</v>
+        <v>1678.759816652456</v>
       </c>
       <c r="R3" t="n">
-        <v>1708.319336015088</v>
+        <v>1708.319336015086</v>
       </c>
       <c r="S3" t="n">
-        <v>1600.329326129397</v>
+        <v>1600.329326129394</v>
       </c>
       <c r="T3" t="n">
-        <v>1440.987462316405</v>
+        <v>1440.987462316403</v>
       </c>
       <c r="U3" t="n">
-        <v>1440.987462316405</v>
+        <v>1243.636651454621</v>
       </c>
       <c r="V3" t="n">
-        <v>1227.275935309439</v>
+        <v>1029.925124447655</v>
       </c>
       <c r="W3" t="n">
-        <v>1014.042767045768</v>
+        <v>816.6919561839837</v>
       </c>
       <c r="X3" t="n">
-        <v>837.7167851846605</v>
+        <v>640.3659743228766</v>
       </c>
       <c r="Y3" t="n">
-        <v>678.3148255484905</v>
+        <v>480.9640146867066</v>
       </c>
     </row>
     <row r="4">
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>301.8712191922843</v>
+        <v>150.5124326159756</v>
       </c>
       <c r="C4" t="n">
-        <v>301.8712191922843</v>
+        <v>150.5124326159756</v>
       </c>
       <c r="D4" t="n">
-        <v>300.119887810519</v>
+        <v>150.5124326159756</v>
       </c>
       <c r="E4" t="n">
-        <v>300.119887810519</v>
+        <v>150.5124326159756</v>
       </c>
       <c r="F4" t="n">
-        <v>300.119887810519</v>
+        <v>150.5124326159756</v>
       </c>
       <c r="G4" t="n">
-        <v>300.119887810519</v>
+        <v>150.5124326159756</v>
       </c>
       <c r="H4" t="n">
         <v>150.5124326159756</v>
       </c>
       <c r="I4" t="n">
-        <v>34.16638672030177</v>
+        <v>34.16638672030171</v>
       </c>
       <c r="J4" t="n">
-        <v>48.24893612551229</v>
+        <v>48.24893612551223</v>
       </c>
       <c r="K4" t="n">
         <v>202.8012638477502</v>
       </c>
       <c r="L4" t="n">
-        <v>462.6983641278108</v>
+        <v>462.6983641278107</v>
       </c>
       <c r="M4" t="n">
-        <v>751.9624205683041</v>
+        <v>751.962420568304</v>
       </c>
       <c r="N4" t="n">
         <v>1032.801202962554</v>
@@ -4512,28 +4512,28 @@
         <v>1563.565283341152</v>
       </c>
       <c r="R4" t="n">
-        <v>1563.565283341152</v>
+        <v>1478.292565016551</v>
       </c>
       <c r="S4" t="n">
-        <v>1377.173515221062</v>
+        <v>1291.900796896462</v>
       </c>
       <c r="T4" t="n">
-        <v>1137.624776197764</v>
+        <v>1052.352057873164</v>
       </c>
       <c r="U4" t="n">
-        <v>854.826628743888</v>
+        <v>769.5539104192878</v>
       </c>
       <c r="V4" t="n">
-        <v>580.94088368341</v>
+        <v>495.6681653588097</v>
       </c>
       <c r="W4" t="n">
-        <v>301.8712191922843</v>
+        <v>495.6681653588097</v>
       </c>
       <c r="X4" t="n">
-        <v>301.8712191922843</v>
+        <v>257.3243032184931</v>
       </c>
       <c r="Y4" t="n">
-        <v>301.8712191922843</v>
+        <v>257.3243032184931</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>725.3324932226151</v>
+        <v>1378.723472461974</v>
       </c>
       <c r="C5" t="n">
-        <v>719.2483065762892</v>
+        <v>968.5988817752439</v>
       </c>
       <c r="D5" t="n">
-        <v>718.8247807097538</v>
+        <v>564.1349518683044</v>
       </c>
       <c r="E5" t="n">
-        <v>304.4845652266505</v>
+        <v>149.794736385201</v>
       </c>
       <c r="F5" t="n">
-        <v>287.4945572207421</v>
+        <v>132.8047283792926</v>
       </c>
       <c r="G5" t="n">
         <v>128.1168483125289</v>
@@ -4567,52 +4567,52 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L5" t="n">
-        <v>216.5644706858345</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M5" t="n">
-        <v>216.5644706858345</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="N5" t="n">
-        <v>733.4074053521598</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O5" t="n">
-        <v>1250.250340018485</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="P5" t="n">
-        <v>1767.09327468481</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q5" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>1866.047797426961</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U5" t="n">
-        <v>1866.047797426961</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V5" t="n">
-        <v>1516.210242763442</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="W5" t="n">
-        <v>1132.44994189861</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="X5" t="n">
-        <v>1132.44994189861</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="Y5" t="n">
-        <v>731.5132688467005</v>
+        <v>1384.904248086059</v>
       </c>
     </row>
     <row r="6">
@@ -4625,7 +4625,7 @@
         <v>720.5959275161366</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D6" t="n">
         <v>469.7036984844747</v>
@@ -4634,37 +4634,37 @@
         <v>349.2108824768027</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593073</v>
       </c>
       <c r="G6" t="n">
         <v>133.260889973646</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936201</v>
       </c>
       <c r="I6" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>1014.414276561226</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M6" t="n">
-        <v>1531.257211227551</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N6" t="n">
-        <v>2048.100145893876</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="O6" t="n">
-        <v>2048.100145893876</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="P6" t="n">
-        <v>2048.100145893876</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q6" t="n">
         <v>2088.254281480102</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>307.7185867198193</v>
+        <v>971.6042912536486</v>
       </c>
       <c r="C7" t="n">
-        <v>307.7185867198193</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="D7" t="n">
-        <v>307.7185867198193</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E7" t="n">
-        <v>307.7185867198193</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F7" t="n">
-        <v>307.7185867198193</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G7" t="n">
         <v>307.7185867198193</v>
@@ -4749,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U7" t="n">
-        <v>777.1526093285881</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V7" t="n">
-        <v>777.1526093285881</v>
+        <v>1297.278237189974</v>
       </c>
       <c r="W7" t="n">
-        <v>546.0624488601359</v>
+        <v>1297.278237189974</v>
       </c>
       <c r="X7" t="n">
-        <v>307.7185867198193</v>
+        <v>1297.278237189974</v>
       </c>
       <c r="Y7" t="n">
-        <v>307.7185867198193</v>
+        <v>1072.542538578738</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>881.5511617534476</v>
+        <v>1340.825645732145</v>
       </c>
       <c r="C8" t="n">
-        <v>471.4265710667177</v>
+        <v>930.701055045415</v>
       </c>
       <c r="D8" t="n">
-        <v>471.0030452001823</v>
+        <v>875.0434492405863</v>
       </c>
       <c r="E8" t="n">
-        <v>460.703233757483</v>
+        <v>864.743637797887</v>
       </c>
       <c r="F8" t="n">
         <v>443.7132257515746</v>
@@ -4804,28 +4804,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K8" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L8" t="n">
-        <v>537.7254774811266</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M8" t="n">
-        <v>1054.568412147452</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N8" t="n">
-        <v>1571.411346813777</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="O8" t="n">
-        <v>2088.254281480102</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="P8" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q8" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R8" t="n">
         <v>2088.254281480102</v>
@@ -4834,22 +4834,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T8" t="n">
-        <v>1932.593134023258</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U8" t="n">
-        <v>1675.532642282768</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V8" t="n">
-        <v>1675.532642282768</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="W8" t="n">
-        <v>1291.772341417937</v>
+        <v>1347.00642135623</v>
       </c>
       <c r="X8" t="n">
-        <v>1291.772341417937</v>
+        <v>1347.00642135623</v>
       </c>
       <c r="Y8" t="n">
-        <v>1291.772341417937</v>
+        <v>1347.00642135623</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K9" t="n">
-        <v>497.5713418949007</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L9" t="n">
-        <v>1014.414276561226</v>
+        <v>751.4208778585605</v>
       </c>
       <c r="M9" t="n">
-        <v>1531.257211227551</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="N9" t="n">
-        <v>2048.100145893876</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="O9" t="n">
-        <v>2048.100145893876</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="P9" t="n">
-        <v>2048.100145893876</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q9" t="n">
         <v>2058.694762117472</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>369.9262918357392</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="C10" t="n">
-        <v>369.9262918357392</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="D10" t="n">
-        <v>369.9262918357392</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="E10" t="n">
-        <v>209.0154767040586</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="F10" t="n">
-        <v>209.0154767040586</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G10" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H10" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I10" t="n">
         <v>41.76508562960205</v>
@@ -4995,19 +4995,19 @@
         <v>1059.950756782464</v>
       </c>
       <c r="U10" t="n">
-        <v>1059.950756782464</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V10" t="n">
-        <v>786.0650117219859</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W10" t="n">
-        <v>557.6259982297836</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="X10" t="n">
-        <v>557.6259982297836</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="Y10" t="n">
-        <v>557.6259982297836</v>
+        <v>503.2668642681101</v>
       </c>
     </row>
     <row r="11">
@@ -5023,19 +5023,19 @@
         <v>1960.285334281246</v>
       </c>
       <c r="D11" t="n">
-        <v>1585.618315208992</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E11" t="n">
         <v>1201.075010560573</v>
       </c>
       <c r="F11" t="n">
-        <v>809.8415093489459</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G11" t="n">
-        <v>430.910136076463</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H11" t="n">
-        <v>149.7985495388647</v>
+        <v>149.7985495388648</v>
       </c>
       <c r="I11" t="n">
         <v>93.2436976906228</v>
@@ -5126,16 +5126,16 @@
         <v>741.8628115185547</v>
       </c>
       <c r="L12" t="n">
-        <v>1402.950983437843</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M12" t="n">
-        <v>1760.328909494509</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N12" t="n">
-        <v>1760.328909494509</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O12" t="n">
-        <v>1760.328909494509</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P12" t="n">
         <v>1760.328909494509</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>973.999172148965</v>
+        <v>749.9965568482047</v>
       </c>
       <c r="C13" t="n">
-        <v>832.7027105453665</v>
+        <v>608.700095244606</v>
       </c>
       <c r="D13" t="n">
-        <v>703.0049767029614</v>
+        <v>479.0023614022009</v>
       </c>
       <c r="E13" t="n">
-        <v>571.8910724059657</v>
+        <v>347.8884571052052</v>
       </c>
       <c r="F13" t="n">
-        <v>437.0568573512419</v>
+        <v>213.0542420504813</v>
       </c>
       <c r="G13" t="n">
-        <v>299.6033771114702</v>
+        <v>213.0542420504813</v>
       </c>
       <c r="H13" t="n">
-        <v>179.7928327516117</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I13" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J13" t="n">
-        <v>136.530199404908</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K13" t="n">
-        <v>320.2864794362206</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L13" t="n">
-        <v>609.3875320253559</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M13" t="n">
-        <v>927.8555407749238</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N13" t="n">
-        <v>1237.898275478249</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O13" t="n">
-        <v>1526.662838113798</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P13" t="n">
         <v>1761.542230672484</v>
@@ -5226,25 +5226,25 @@
         <v>1856.27421278407</v>
       </c>
       <c r="S13" t="n">
-        <v>1699.679355498665</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="T13" t="n">
-        <v>1699.679355498665</v>
+        <v>1646.522384595457</v>
       </c>
       <c r="U13" t="n">
-        <v>1446.678118879474</v>
+        <v>1393.521147976266</v>
       </c>
       <c r="V13" t="n">
-        <v>1446.678118879474</v>
+        <v>1194.208098281196</v>
       </c>
       <c r="W13" t="n">
-        <v>1340.448919013956</v>
+        <v>944.9353446247552</v>
       </c>
       <c r="X13" t="n">
-        <v>1131.901967708324</v>
+        <v>944.9353446247552</v>
       </c>
       <c r="Y13" t="n">
-        <v>1131.901967708324</v>
+        <v>749.9965568482047</v>
       </c>
     </row>
     <row r="14">
@@ -5260,19 +5260,19 @@
         <v>1960.285334281246</v>
       </c>
       <c r="D14" t="n">
-        <v>1585.618315208992</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E14" t="n">
         <v>1201.075010560573</v>
       </c>
       <c r="F14" t="n">
-        <v>809.8415093489459</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G14" t="n">
-        <v>430.910136076463</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H14" t="n">
-        <v>149.7985495388659</v>
+        <v>149.7985495388648</v>
       </c>
       <c r="I14" t="n">
         <v>93.2436976906228</v>
@@ -5305,25 +5305,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>4556.700720159925</v>
+        <v>4556.700720159924</v>
       </c>
       <c r="T14" t="n">
-        <v>4364.291146941469</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U14" t="n">
-        <v>4137.027566035665</v>
+        <v>4137.027566035664</v>
       </c>
       <c r="V14" t="n">
         <v>3816.98692220683</v>
       </c>
       <c r="W14" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X14" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y14" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K15" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L15" t="n">
-        <v>1210.13812587521</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M15" t="n">
-        <v>1236.515282066875</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N15" t="n">
-        <v>2110.173374178493</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O15" t="n">
-        <v>2110.173374178493</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P15" t="n">
-        <v>2110.173374178493</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q15" t="n">
         <v>2110.173374178493</v>
@@ -5412,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>321.6391484537206</v>
+        <v>587.03741370693</v>
       </c>
       <c r="C16" t="n">
-        <v>321.6391484537206</v>
+        <v>445.7409521033313</v>
       </c>
       <c r="D16" t="n">
-        <v>321.6391484537206</v>
+        <v>445.7409521033313</v>
       </c>
       <c r="E16" t="n">
-        <v>321.6391484537206</v>
+        <v>314.6270478063357</v>
       </c>
       <c r="F16" t="n">
-        <v>186.8049333989967</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="G16" t="n">
-        <v>186.8049333989967</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="H16" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="I16" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J16" t="n">
-        <v>136.530199404908</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K16" t="n">
-        <v>320.2864794362206</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L16" t="n">
-        <v>609.3875320253559</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M16" t="n">
-        <v>927.8555407749238</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N16" t="n">
-        <v>1237.898275478249</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O16" t="n">
-        <v>1526.662838113798</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P16" t="n">
         <v>1761.542230672484</v>
@@ -5463,25 +5463,25 @@
         <v>1800.798405294154</v>
       </c>
       <c r="S16" t="n">
-        <v>1644.20354800875</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="T16" t="n">
-        <v>1434.451719820137</v>
+        <v>1434.451719820136</v>
       </c>
       <c r="U16" t="n">
-        <v>1181.450483200946</v>
+        <v>1181.450483200945</v>
       </c>
       <c r="V16" t="n">
-        <v>937.3616489751525</v>
+        <v>937.361648975152</v>
       </c>
       <c r="W16" t="n">
-        <v>688.0888953187118</v>
+        <v>688.0888953187111</v>
       </c>
       <c r="X16" t="n">
-        <v>479.5419440130801</v>
+        <v>587.03741370693</v>
       </c>
       <c r="Y16" t="n">
-        <v>479.5419440130801</v>
+        <v>587.03741370693</v>
       </c>
     </row>
     <row r="17">
@@ -5503,49 +5503,49 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F17" t="n">
-        <v>809.8415093489448</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G17" t="n">
-        <v>430.9101360764618</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H17" t="n">
-        <v>149.7985495388647</v>
+        <v>149.7985495388648</v>
       </c>
       <c r="I17" t="n">
-        <v>93.24369769062278</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
-        <v>347.4291691583754</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K17" t="n">
-        <v>885.588670267415</v>
+        <v>885.588670267417</v>
       </c>
       <c r="L17" t="n">
-        <v>1598.180070079653</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M17" t="n">
-        <v>2374.498661071407</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N17" t="n">
-        <v>3127.679677710025</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O17" t="n">
-        <v>3771.31053412713</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P17" t="n">
-        <v>4300.467232046281</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q17" t="n">
-        <v>4621.628238841574</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R17" t="n">
-        <v>4662.184884531139</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>4556.700720159924</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T17" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U17" t="n">
         <v>4137.027566035664</v>
@@ -5560,7 +5560,7 @@
         <v>3092.17704518032</v>
       </c>
       <c r="Y17" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3294.526530567173</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C18" t="n">
-        <v>3160.531459316118</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D18" t="n">
-        <v>3043.634301535511</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E18" t="n">
-        <v>2923.141485527839</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F18" t="n">
-        <v>2814.181605710344</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G18" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H18" t="n">
-        <v>2636.444280060399</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I18" t="n">
-        <v>2615.695688680639</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>2808.508546243272</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>2808.508546243272</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>2808.508546243272</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M18" t="n">
-        <v>2808.508546243272</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N18" t="n">
-        <v>3682.16663835489</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O18" t="n">
-        <v>3750.634527358625</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P18" t="n">
-        <v>4312.340419847155</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q18" t="n">
-        <v>4662.184884531139</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R18" t="n">
-        <v>4662.184884531139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S18" t="n">
-        <v>4554.194874645447</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T18" t="n">
-        <v>4394.853010832456</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U18" t="n">
-        <v>4197.502199970674</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V18" t="n">
-        <v>3983.790672963708</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W18" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X18" t="n">
-        <v>3594.231522838929</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y18" t="n">
-        <v>3434.829563202759</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="19">
@@ -5649,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>973.999172148965</v>
+        <v>338.77102545249</v>
       </c>
       <c r="C19" t="n">
-        <v>832.7027105453665</v>
+        <v>224.3576019876185</v>
       </c>
       <c r="D19" t="n">
-        <v>703.0049767029614</v>
+        <v>224.3576019876185</v>
       </c>
       <c r="E19" t="n">
-        <v>571.8910724059657</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F19" t="n">
-        <v>437.0568573512419</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G19" t="n">
-        <v>299.6033771114702</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H19" t="n">
-        <v>179.7928327516117</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I19" t="n">
-        <v>93.24369769062278</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J19" t="n">
-        <v>136.530199404908</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K19" t="n">
-        <v>320.2864794362206</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L19" t="n">
-        <v>609.3875320253559</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M19" t="n">
-        <v>927.8555407749238</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N19" t="n">
-        <v>1237.898275478249</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O19" t="n">
-        <v>1526.662838113798</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P19" t="n">
         <v>1761.542230672484</v>
@@ -5697,28 +5697,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R19" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S19" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="T19" t="n">
-        <v>1800.798405294154</v>
+        <v>1646.522384595457</v>
       </c>
       <c r="U19" t="n">
-        <v>1547.797168674964</v>
+        <v>1393.521147976266</v>
       </c>
       <c r="V19" t="n">
-        <v>1303.70833444917</v>
+        <v>1149.432313750473</v>
       </c>
       <c r="W19" t="n">
-        <v>1054.43558079273</v>
+        <v>900.1595600940318</v>
       </c>
       <c r="X19" t="n">
-        <v>1054.43558079273</v>
+        <v>691.6126087884001</v>
       </c>
       <c r="Y19" t="n">
-        <v>973.999172148965</v>
+        <v>496.6738210118496</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C20" t="n">
-        <v>1960.285334281245</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D20" t="n">
         <v>1585.618315208991</v>
@@ -5743,16 +5743,16 @@
         <v>809.841509348945</v>
       </c>
       <c r="G20" t="n">
-        <v>430.9101360764621</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H20" t="n">
-        <v>149.7985495388647</v>
+        <v>149.7985495388648</v>
       </c>
       <c r="I20" t="n">
-        <v>93.24369769062278</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J20" t="n">
-        <v>347.4291691583771</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K20" t="n">
         <v>885.5886702674165</v>
@@ -5776,19 +5776,19 @@
         <v>4621.628238841575</v>
       </c>
       <c r="R20" t="n">
-        <v>4662.184884531139</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4556.700720159924</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T20" t="n">
         <v>4364.291146941468</v>
       </c>
       <c r="U20" t="n">
-        <v>4137.027566035663</v>
+        <v>4137.027566035664</v>
       </c>
       <c r="V20" t="n">
-        <v>3816.986922206829</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W20" t="n">
         <v>3463.023532176683</v>
@@ -5822,34 +5822,34 @@
         <v>291.7296147203278</v>
       </c>
       <c r="G21" t="n">
-        <v>184.7395020346665</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H21" t="n">
         <v>113.9922890703826</v>
       </c>
       <c r="I21" t="n">
-        <v>93.24369769062278</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K21" t="n">
-        <v>741.8628115185547</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L21" t="n">
-        <v>1402.950983437843</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M21" t="n">
-        <v>1406.216283632599</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N21" t="n">
-        <v>1406.216283632599</v>
+        <v>2083.796217986828</v>
       </c>
       <c r="O21" t="n">
-        <v>2110.173374178493</v>
+        <v>2083.796217986828</v>
       </c>
       <c r="P21" t="n">
-        <v>2110.173374178493</v>
+        <v>2083.796217986828</v>
       </c>
       <c r="Q21" t="n">
         <v>2110.173374178493</v>
@@ -5886,46 +5886,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>429.3011109538753</v>
+        <v>234.5401592942214</v>
       </c>
       <c r="C22" t="n">
-        <v>429.3011109538753</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D22" t="n">
-        <v>299.6033771114702</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E22" t="n">
-        <v>299.6033771114702</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F22" t="n">
-        <v>299.6033771114702</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G22" t="n">
-        <v>299.6033771114702</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H22" t="n">
-        <v>179.7928327516117</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I22" t="n">
-        <v>93.24369769062278</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J22" t="n">
-        <v>136.530199404908</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K22" t="n">
-        <v>320.2864794362206</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L22" t="n">
-        <v>609.3875320253559</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M22" t="n">
-        <v>927.8555407749238</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N22" t="n">
-        <v>1237.898275478249</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O22" t="n">
-        <v>1526.662838113798</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P22" t="n">
         <v>1761.542230672484</v>
@@ -5934,28 +5934,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R22" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S22" t="n">
-        <v>1644.20354800875</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T22" t="n">
-        <v>1434.451719820137</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="U22" t="n">
-        <v>1181.450483200946</v>
+        <v>1236.926290690861</v>
       </c>
       <c r="V22" t="n">
-        <v>937.3616489751525</v>
+        <v>992.8374564650675</v>
       </c>
       <c r="W22" t="n">
-        <v>688.0888953187118</v>
+        <v>743.5647028086266</v>
       </c>
       <c r="X22" t="n">
-        <v>688.0888953187118</v>
+        <v>535.0177515029949</v>
       </c>
       <c r="Y22" t="n">
-        <v>587.2039065132349</v>
+        <v>340.0789637264444</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2340.613014133292</v>
+        <v>2340.613014133291</v>
       </c>
       <c r="C23" t="n">
-        <v>1960.285334281247</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D23" t="n">
-        <v>1585.618315208992</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E23" t="n">
-        <v>1201.075010560574</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F23" t="n">
-        <v>809.8415093489461</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G23" t="n">
-        <v>430.9101360764625</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H23" t="n">
-        <v>149.7985495388647</v>
+        <v>149.7985495388648</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J23" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K23" t="n">
-        <v>885.588670267417</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L23" t="n">
         <v>1598.180070079655</v>
@@ -6004,7 +6004,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O23" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P23" t="n">
         <v>4300.467232046283</v>
@@ -6031,10 +6031,10 @@
         <v>3463.023532176684</v>
       </c>
       <c r="X23" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y23" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="24">
@@ -6068,28 +6068,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N24" t="n">
-        <v>1809.878870496807</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q24" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R24" t="n">
         <v>2139.732893541123</v>
@@ -6123,46 +6123,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>832.7027105453665</v>
+        <v>234.5401592942214</v>
       </c>
       <c r="C25" t="n">
-        <v>832.7027105453665</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D25" t="n">
-        <v>703.0049767029614</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E25" t="n">
-        <v>571.8910724059657</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F25" t="n">
-        <v>437.0568573512419</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G25" t="n">
-        <v>299.6033771114702</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H25" t="n">
-        <v>179.7928327516117</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I25" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J25" t="n">
-        <v>136.530199404908</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K25" t="n">
-        <v>320.2864794362206</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L25" t="n">
-        <v>609.3875320253559</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M25" t="n">
-        <v>927.8555407749238</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N25" t="n">
-        <v>1237.898275478249</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O25" t="n">
-        <v>1526.662838113798</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P25" t="n">
         <v>1761.542230672484</v>
@@ -6174,25 +6174,25 @@
         <v>1856.27421278407</v>
       </c>
       <c r="S25" t="n">
-        <v>1856.27421278407</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T25" t="n">
-        <v>1856.27421278407</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="U25" t="n">
-        <v>1603.272976164879</v>
+        <v>1236.926290690861</v>
       </c>
       <c r="V25" t="n">
-        <v>1434.817047537717</v>
+        <v>992.8374564650675</v>
       </c>
       <c r="W25" t="n">
-        <v>1185.544293881276</v>
+        <v>795.9286939357632</v>
       </c>
       <c r="X25" t="n">
-        <v>1185.544293881276</v>
+        <v>587.3817426301315</v>
       </c>
       <c r="Y25" t="n">
-        <v>990.6055061047259</v>
+        <v>392.442954853581</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2340.613014133291</v>
+        <v>2340.61301413329</v>
       </c>
       <c r="C26" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D26" t="n">
-        <v>1585.618315208992</v>
+        <v>1585.61831520899</v>
       </c>
       <c r="E26" t="n">
-        <v>1201.075010560573</v>
+        <v>1201.075010560572</v>
       </c>
       <c r="F26" t="n">
-        <v>809.8415093489459</v>
+        <v>809.8415093489448</v>
       </c>
       <c r="G26" t="n">
-        <v>430.910136076463</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H26" t="n">
-        <v>149.7985495388659</v>
+        <v>149.7985495388648</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J26" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K26" t="n">
-        <v>885.5886702674165</v>
+        <v>885.588670267417</v>
       </c>
       <c r="L26" t="n">
         <v>1598.180070079655</v>
@@ -6241,7 +6241,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O26" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P26" t="n">
         <v>4300.467232046283</v>
@@ -6256,22 +6256,22 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T26" t="n">
-        <v>4364.291146941469</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U26" t="n">
-        <v>4137.027566035665</v>
+        <v>4137.027566035664</v>
       </c>
       <c r="V26" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206829</v>
       </c>
       <c r="W26" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176682</v>
       </c>
       <c r="X26" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y26" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963094</v>
       </c>
     </row>
     <row r="27">
@@ -6305,28 +6305,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M27" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N27" t="n">
-        <v>1809.878870496807</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P27" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q27" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R27" t="n">
         <v>2139.732893541123</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3528.98539523918</v>
+        <v>338.77102545249</v>
       </c>
       <c r="C28" t="n">
-        <v>3387.688933635582</v>
+        <v>197.4745638488913</v>
       </c>
       <c r="D28" t="n">
-        <v>3257.991199793177</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E28" t="n">
-        <v>3257.991199793177</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F28" t="n">
-        <v>3123.156984738453</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G28" t="n">
-        <v>2985.703504498681</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H28" t="n">
-        <v>2985.703504498681</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I28" t="n">
-        <v>2899.154369437692</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J28" t="n">
-        <v>2942.440871151978</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K28" t="n">
-        <v>3126.19715118329</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L28" t="n">
-        <v>3415.298203772425</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M28" t="n">
-        <v>3733.766212521994</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N28" t="n">
-        <v>4043.808947225319</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O28" t="n">
-        <v>4332.573509860867</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P28" t="n">
-        <v>4567.452902419554</v>
+        <v>1761.542230672484</v>
       </c>
       <c r="Q28" t="n">
-        <v>4662.18488453114</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="R28" t="n">
-        <v>4662.18488453114</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S28" t="n">
-        <v>4505.590027245735</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="T28" t="n">
-        <v>4295.838199057122</v>
+        <v>1646.522384595457</v>
       </c>
       <c r="U28" t="n">
-        <v>4042.836962437931</v>
+        <v>1393.521147976266</v>
       </c>
       <c r="V28" t="n">
-        <v>3895.435142104172</v>
+        <v>1149.432313750473</v>
       </c>
       <c r="W28" t="n">
-        <v>3895.435142104172</v>
+        <v>900.1595600940318</v>
       </c>
       <c r="X28" t="n">
-        <v>3686.88819079854</v>
+        <v>691.6126087884001</v>
       </c>
       <c r="Y28" t="n">
-        <v>3686.88819079854</v>
+        <v>496.6738210118496</v>
       </c>
     </row>
     <row r="29">
@@ -6445,28 +6445,28 @@
         <v>1960.285334281246</v>
       </c>
       <c r="D29" t="n">
-        <v>1585.618315208991</v>
+        <v>1585.618315208992</v>
       </c>
       <c r="E29" t="n">
         <v>1201.075010560573</v>
       </c>
       <c r="F29" t="n">
-        <v>809.841509348945</v>
+        <v>809.8415093489459</v>
       </c>
       <c r="G29" t="n">
-        <v>430.9101360764621</v>
+        <v>430.910136076463</v>
       </c>
       <c r="H29" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388659</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J29" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K29" t="n">
-        <v>885.588670267417</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L29" t="n">
         <v>1598.180070079655</v>
@@ -6478,7 +6478,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O29" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P29" t="n">
         <v>4300.467232046283</v>
@@ -6493,10 +6493,10 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T29" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U29" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V29" t="n">
         <v>3816.98692220683</v>
@@ -6542,28 +6542,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M30" t="n">
-        <v>562.1177108836107</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N30" t="n">
-        <v>1435.775802995229</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q30" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R30" t="n">
         <v>2139.732893541123</v>
@@ -6597,46 +6597,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>493.0470461511873</v>
+        <v>126.7003606771702</v>
       </c>
       <c r="C31" t="n">
-        <v>351.7505845475886</v>
+        <v>126.7003606771702</v>
       </c>
       <c r="D31" t="n">
-        <v>310.9067370486075</v>
+        <v>126.7003606771702</v>
       </c>
       <c r="E31" t="n">
-        <v>179.7928327516118</v>
+        <v>126.7003606771702</v>
       </c>
       <c r="F31" t="n">
-        <v>179.7928327516118</v>
+        <v>126.7003606771702</v>
       </c>
       <c r="G31" t="n">
-        <v>179.7928327516118</v>
+        <v>126.7003606771702</v>
       </c>
       <c r="H31" t="n">
-        <v>179.7928327516118</v>
+        <v>126.7003606771702</v>
       </c>
       <c r="I31" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>136.5301994049079</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K31" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L31" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253559</v>
       </c>
       <c r="M31" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749238</v>
       </c>
       <c r="N31" t="n">
-        <v>1237.898275478248</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O31" t="n">
-        <v>1526.662838113797</v>
+        <v>1526.662838113798</v>
       </c>
       <c r="P31" t="n">
         <v>1761.542230672484</v>
@@ -6648,25 +6648,25 @@
         <v>1800.798405294154</v>
       </c>
       <c r="S31" t="n">
-        <v>1800.798405294154</v>
+        <v>1644.20354800875</v>
       </c>
       <c r="T31" t="n">
-        <v>1800.798405294154</v>
+        <v>1434.451719820137</v>
       </c>
       <c r="U31" t="n">
-        <v>1547.797168674963</v>
+        <v>1181.450483200946</v>
       </c>
       <c r="V31" t="n">
-        <v>1303.70833444917</v>
+        <v>937.3616489751525</v>
       </c>
       <c r="W31" t="n">
-        <v>1054.435580792729</v>
+        <v>688.0888953187118</v>
       </c>
       <c r="X31" t="n">
-        <v>845.8886294870973</v>
+        <v>479.5419440130801</v>
       </c>
       <c r="Y31" t="n">
-        <v>650.9498417105468</v>
+        <v>284.6031562365297</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2340.61301413329</v>
+        <v>2340.613014133292</v>
       </c>
       <c r="C32" t="n">
-        <v>1960.285334281245</v>
+        <v>1960.285334281247</v>
       </c>
       <c r="D32" t="n">
-        <v>1585.61831520899</v>
+        <v>1585.618315208992</v>
       </c>
       <c r="E32" t="n">
-        <v>1201.075010560572</v>
+        <v>1201.075010560574</v>
       </c>
       <c r="F32" t="n">
-        <v>809.8415093489446</v>
+        <v>809.8415093489461</v>
       </c>
       <c r="G32" t="n">
-        <v>430.9101360764616</v>
+        <v>430.9101360764625</v>
       </c>
       <c r="H32" t="n">
         <v>149.7985495388647</v>
@@ -6730,22 +6730,22 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T32" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U32" t="n">
-        <v>4137.027566035663</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V32" t="n">
-        <v>3816.986922206828</v>
+        <v>3816.986922206831</v>
       </c>
       <c r="W32" t="n">
-        <v>3463.023532176682</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X32" t="n">
-        <v>3092.177045180319</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y32" t="n">
-        <v>2721.037282963094</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="33">
@@ -6782,25 +6782,25 @@
         <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>286.056555253256</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>286.056555253256</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M33" t="n">
-        <v>286.056555253256</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N33" t="n">
-        <v>1085.931338311245</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O33" t="n">
-        <v>1789.888428857139</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P33" t="n">
-        <v>1789.888428857139</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q33" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R33" t="n">
         <v>2139.732893541123</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3555.907228595274</v>
+        <v>126.7003606771702</v>
       </c>
       <c r="C34" t="n">
-        <v>3414.610766991675</v>
+        <v>126.7003606771702</v>
       </c>
       <c r="D34" t="n">
-        <v>3284.91303314927</v>
+        <v>126.7003606771702</v>
       </c>
       <c r="E34" t="n">
-        <v>3153.799128852274</v>
+        <v>126.7003606771702</v>
       </c>
       <c r="F34" t="n">
-        <v>3018.964913797551</v>
+        <v>126.7003606771702</v>
       </c>
       <c r="G34" t="n">
-        <v>3018.964913797551</v>
+        <v>126.7003606771702</v>
       </c>
       <c r="H34" t="n">
-        <v>2899.154369437692</v>
+        <v>126.7003606771702</v>
       </c>
       <c r="I34" t="n">
-        <v>2899.154369437692</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>2942.440871151978</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K34" t="n">
-        <v>3126.19715118329</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L34" t="n">
-        <v>3415.298203772425</v>
+        <v>609.3875320253559</v>
       </c>
       <c r="M34" t="n">
-        <v>3733.766212521994</v>
+        <v>927.8555407749238</v>
       </c>
       <c r="N34" t="n">
-        <v>4043.808947225319</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O34" t="n">
-        <v>4332.573509860867</v>
+        <v>1526.662838113798</v>
       </c>
       <c r="P34" t="n">
-        <v>4567.452902419554</v>
+        <v>1761.542230672484</v>
       </c>
       <c r="Q34" t="n">
-        <v>4662.18488453114</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="R34" t="n">
-        <v>4606.709077041224</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="S34" t="n">
-        <v>4606.709077041224</v>
+        <v>1644.20354800875</v>
       </c>
       <c r="T34" t="n">
-        <v>4606.709077041224</v>
+        <v>1434.451719820137</v>
       </c>
       <c r="U34" t="n">
-        <v>4606.709077041224</v>
+        <v>1181.450483200946</v>
       </c>
       <c r="V34" t="n">
-        <v>4362.620242815431</v>
+        <v>937.3616489751525</v>
       </c>
       <c r="W34" t="n">
-        <v>4117.295763236815</v>
+        <v>688.0888953187118</v>
       </c>
       <c r="X34" t="n">
-        <v>3908.748811931184</v>
+        <v>479.5419440130801</v>
       </c>
       <c r="Y34" t="n">
-        <v>3713.810024154634</v>
+        <v>284.6031562365297</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2340.613014133291</v>
+        <v>2340.61301413329</v>
       </c>
       <c r="C35" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D35" t="n">
-        <v>1585.618315208992</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E35" t="n">
-        <v>1201.075010560573</v>
+        <v>1201.075010560572</v>
       </c>
       <c r="F35" t="n">
-        <v>809.8415093489459</v>
+        <v>809.8415093489448</v>
       </c>
       <c r="G35" t="n">
-        <v>430.910136076463</v>
+        <v>430.9101360764619</v>
       </c>
       <c r="H35" t="n">
-        <v>149.7985495388659</v>
+        <v>149.7985495388647</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J35" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K35" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L35" t="n">
         <v>1598.180070079655</v>
@@ -6967,22 +6967,22 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T35" t="n">
-        <v>4364.291146941469</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U35" t="n">
-        <v>4137.027566035665</v>
+        <v>4137.027566035663</v>
       </c>
       <c r="V35" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206829</v>
       </c>
       <c r="W35" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176682</v>
       </c>
       <c r="X35" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y35" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L36" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M36" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N36" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O36" t="n">
-        <v>1640.177868931084</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P36" t="n">
-        <v>1789.888428857139</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q36" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R36" t="n">
         <v>2139.732893541123</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>588.2405084373871</v>
+        <v>585.6619072492679</v>
       </c>
       <c r="C37" t="n">
-        <v>446.9440468337885</v>
+        <v>585.6619072492679</v>
       </c>
       <c r="D37" t="n">
-        <v>317.2463129913834</v>
+        <v>455.9641734068628</v>
       </c>
       <c r="E37" t="n">
-        <v>317.2463129913834</v>
+        <v>452.0805280461072</v>
       </c>
       <c r="F37" t="n">
         <v>317.2463129913834</v>
@@ -7128,19 +7128,19 @@
         <v>1489.927527310052</v>
       </c>
       <c r="U37" t="n">
-        <v>1398.90179673537</v>
+        <v>1236.926290690861</v>
       </c>
       <c r="V37" t="n">
-        <v>1398.90179673537</v>
+        <v>992.837456465068</v>
       </c>
       <c r="W37" t="n">
-        <v>1149.629043078929</v>
+        <v>743.5647028086273</v>
       </c>
       <c r="X37" t="n">
-        <v>941.0820917732971</v>
+        <v>743.5647028086273</v>
       </c>
       <c r="Y37" t="n">
-        <v>746.1433039967467</v>
+        <v>743.5647028086273</v>
       </c>
     </row>
     <row r="38">
@@ -7174,10 +7174,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J38" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K38" t="n">
-        <v>885.588670267417</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
@@ -7189,7 +7189,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O38" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P38" t="n">
         <v>4300.467232046283</v>
@@ -7253,28 +7253,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L39" t="n">
-        <v>754.331869609911</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M39" t="n">
-        <v>754.331869609911</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N39" t="n">
-        <v>1627.989961721529</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O39" t="n">
-        <v>1627.989961721529</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P39" t="n">
-        <v>1789.888428857139</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q39" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R39" t="n">
         <v>2139.732893541123</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3123.156984738453</v>
+        <v>234.5401592942214</v>
       </c>
       <c r="C40" t="n">
-        <v>3123.156984738453</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D40" t="n">
-        <v>3123.156984738453</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E40" t="n">
-        <v>3123.156984738453</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F40" t="n">
-        <v>3123.156984738453</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G40" t="n">
-        <v>2985.703504498681</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H40" t="n">
-        <v>2985.703504498681</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I40" t="n">
-        <v>2899.154369437692</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J40" t="n">
-        <v>2942.440871151978</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K40" t="n">
-        <v>3126.19715118329</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L40" t="n">
-        <v>3415.298203772425</v>
+        <v>609.3875320253559</v>
       </c>
       <c r="M40" t="n">
-        <v>3733.766212521994</v>
+        <v>927.8555407749238</v>
       </c>
       <c r="N40" t="n">
-        <v>4043.808947225319</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O40" t="n">
-        <v>4332.573509860867</v>
+        <v>1526.662838113798</v>
       </c>
       <c r="P40" t="n">
-        <v>4567.452902419554</v>
+        <v>1761.542230672484</v>
       </c>
       <c r="Q40" t="n">
-        <v>4662.18488453114</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="R40" t="n">
-        <v>4606.709077041224</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S40" t="n">
-        <v>4450.114219755819</v>
+        <v>1752.043346625801</v>
       </c>
       <c r="T40" t="n">
-        <v>4240.362391567206</v>
+        <v>1542.291518437188</v>
       </c>
       <c r="U40" t="n">
-        <v>3987.361154948015</v>
+        <v>1289.290281817997</v>
       </c>
       <c r="V40" t="n">
-        <v>3743.272320722222</v>
+        <v>1045.201447592204</v>
       </c>
       <c r="W40" t="n">
-        <v>3493.999567065781</v>
+        <v>795.928693935763</v>
       </c>
       <c r="X40" t="n">
-        <v>3285.452615760149</v>
+        <v>587.3817426301313</v>
       </c>
       <c r="Y40" t="n">
-        <v>3281.059780297813</v>
+        <v>392.4429548535809</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293157</v>
       </c>
       <c r="C41" t="n">
-        <v>1828.158301917073</v>
+        <v>2052.715036606427</v>
       </c>
       <c r="D41" t="n">
-        <v>1423.694372010133</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E41" t="n">
-        <v>1009.35415652703</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F41" t="n">
-        <v>588.3237444807176</v>
+        <v>812.8804791700725</v>
       </c>
       <c r="G41" t="n">
-        <v>179.5954603735497</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H41" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I41" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J41" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K41" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L41" t="n">
         <v>1598.180070079655</v>
@@ -7438,25 +7438,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T41" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U41" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368954</v>
       </c>
       <c r="V41" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705435</v>
       </c>
       <c r="W41" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840604</v>
       </c>
       <c r="X41" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y41" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957646</v>
       </c>
     </row>
     <row r="42">
@@ -7496,22 +7496,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L42" t="n">
-        <v>754.331869609911</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M42" t="n">
-        <v>844.5103911440685</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N42" t="n">
-        <v>844.5103911440685</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O42" t="n">
-        <v>1548.467481689963</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P42" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q42" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R42" t="n">
         <v>2139.732893541123</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>916.6240469015422</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C43" t="n">
-        <v>745.5306744632587</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D43" t="n">
-        <v>586.0360297861687</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E43" t="n">
-        <v>425.1252146544881</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F43" t="n">
-        <v>260.4940887650794</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G43" t="n">
         <v>93.2436976906228</v>
@@ -7596,25 +7596,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S43" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T43" t="n">
-        <v>1622.642594311473</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U43" t="n">
-        <v>1622.642594311473</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="V43" t="n">
-        <v>1622.642594311473</v>
+        <v>640.0181946537314</v>
       </c>
       <c r="W43" t="n">
-        <v>1567.403314047138</v>
+        <v>360.9485301626057</v>
       </c>
       <c r="X43" t="n">
-        <v>1329.059451906822</v>
+        <v>280.9434040846672</v>
       </c>
       <c r="Y43" t="n">
-        <v>1104.323753295587</v>
+        <v>280.9434040846672</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2549.191389976084</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C44" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D44" t="n">
-        <v>1734.602869382415</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E44" t="n">
-        <v>1320.262653899312</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F44" t="n">
-        <v>899.2322418529993</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G44" t="n">
-        <v>490.5039577458315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H44" t="n">
-        <v>179.5954603735496</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I44" t="n">
         <v>93.2436976906228</v>
@@ -7684,16 +7684,16 @@
         <v>4047.636833531609</v>
       </c>
       <c r="V44" t="n">
-        <v>3760.992640523531</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W44" t="n">
-        <v>3760.992640523531</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X44" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y44" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K45" t="n">
-        <v>741.8628115185547</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L45" t="n">
-        <v>946.9113481625727</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M45" t="n">
-        <v>1789.888428857139</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N45" t="n">
-        <v>1789.888428857139</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O45" t="n">
-        <v>1789.888428857139</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="P45" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q45" t="n">
         <v>2139.732893541123</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1011.484175553476</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C46" t="n">
-        <v>1011.484175553476</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D46" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E46" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F46" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G46" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H46" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I46" t="n">
         <v>93.2436976906228</v>
@@ -7836,22 +7836,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T46" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U46" t="n">
-        <v>1622.642594311473</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V46" t="n">
-        <v>1622.642594311473</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W46" t="n">
-        <v>1622.642594311473</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X46" t="n">
-        <v>1423.919580558756</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y46" t="n">
-        <v>1199.18388194752</v>
+        <v>280.9434040846672</v>
       </c>
     </row>
   </sheetData>
@@ -7978,19 +7978,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>158.7426170992591</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>516.2162236769891</v>
+        <v>516.2162236769885</v>
       </c>
       <c r="L2" t="n">
-        <v>522.5652320666169</v>
+        <v>522.5652320666162</v>
       </c>
       <c r="M2" t="n">
-        <v>520.3700584608175</v>
+        <v>520.3700584608168</v>
       </c>
       <c r="N2" t="n">
-        <v>92.91229075661933</v>
+        <v>205.0170636316333</v>
       </c>
       <c r="O2" t="n">
         <v>93.18977562578313</v>
@@ -7999,10 +7999,10 @@
         <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,25 +8057,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>77.95697441310111</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>482.9056167883874</v>
+        <v>482.9056167883868</v>
       </c>
       <c r="L3" t="n">
-        <v>483.1943578146211</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>480.273227397522</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>57.751479</v>
+        <v>316.6585864323941</v>
       </c>
       <c r="P3" t="n">
-        <v>54.25963500280375</v>
+        <v>481.3394690065751</v>
       </c>
       <c r="Q3" t="n">
         <v>410.0708656603775</v>
@@ -8215,16 +8215,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
-        <v>272.0504334731806</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
-        <v>93.29022445704545</v>
+        <v>494.1995199774884</v>
       </c>
       <c r="N5" t="n">
         <v>614.9758611266449</v>
@@ -8233,13 +8233,13 @@
         <v>615.2533459958087</v>
       </c>
       <c r="P5" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
         <v>516.2361426485535</v>
@@ -8303,19 +8303,19 @@
         <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>575.2569637637755</v>
+        <v>67.6779873391382</v>
       </c>
       <c r="O6" t="n">
         <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.25235142021847</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
         <v>59.00019910540541</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
-        <v>596.4554908421626</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M8" t="n">
         <v>615.3537948270711</v>
       </c>
       <c r="N8" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O8" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>494.5586588013271</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,16 +8531,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
         <v>578.1780941808746</v>
       </c>
       <c r="M9" t="n">
-        <v>579.627854108443</v>
+        <v>502.6011371814508</v>
       </c>
       <c r="N9" t="n">
         <v>575.2569637637755</v>
@@ -8552,7 +8552,7 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
-        <v>67.39425105392553</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
         <v>88.85829947169823</v>
@@ -8713,7 +8713,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8774,19 +8774,19 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>418.5520878360603</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>57.751479</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
         <v>410.0708656603775</v>
@@ -9005,28 +9005,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>84.20787585121046</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>57.751479</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
         <v>88.85829947169823</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>330.0765928158864</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
         <v>632.7318453389136</v>
@@ -9245,19 +9245,19 @@
         <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M18" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>126.9109628421569</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
         <v>621.6393243851574</v>
@@ -9266,7 +9266,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
-        <v>128.2784515920609</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K21" t="n">
         <v>516.2361426485535</v>
@@ -9488,19 +9488,19 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M21" t="n">
-        <v>60.86256676342306</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O21" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>83.33621061763176</v>
       </c>
       <c r="R21" t="n">
         <v>88.85829947169823</v>
@@ -9661,7 +9661,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R23" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M30" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10430,28 +10430,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M33" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>861.1477197149511</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
         <v>632.7318453389136</v>
@@ -10609,7 +10609,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R35" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>205.4824228069005</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,31 +10901,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M39" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
         <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>217.7934401902893</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
         <v>632.7318453389136</v>
@@ -11144,25 +11144,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L42" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>148.6536994294856</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N42" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O42" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P42" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q42" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R42" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11317,7 +11317,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
         <v>128.2784515920617</v>
@@ -11375,28 +11375,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K45" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L45" t="n">
-        <v>263.2342577947056</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M45" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N45" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O45" t="n">
         <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>387.4455168657486</v>
       </c>
       <c r="Q45" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R45" t="n">
         <v>59.00019910540541</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>54.92104941501628</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T13" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>241.6479458835352</v>
+        <v>44.32802668541638</v>
       </c>
       <c r="W13" t="n">
-        <v>141.6131182530135</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y13" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C16" t="n">
-        <v>139.8834969875626</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>128.400756503981</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E16" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>136.078945437374</v>
       </c>
       <c r="H16" t="n">
-        <v>25.98681556496966</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I16" t="n">
-        <v>85.68364371037904</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>106.4205149969121</v>
       </c>
       <c r="Y16" t="n">
         <v>192.9893998987849</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>156.3237676037659</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>26.61420775733986</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S19" t="n">
         <v>155.0289087125508</v>
       </c>
       <c r="T19" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>206.4614817925754</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>113.3573553414578</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>51.84035121586525</v>
       </c>
       <c r="C22" t="n">
-        <v>139.8834969875626</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E22" t="n">
         <v>129.8027652540257</v>
       </c>
       <c r="F22" t="n">
-        <v>133.4858729041766</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G22" t="n">
         <v>136.078945437374</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>206.4614817925754</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>93.1132609813627</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>139.8834969875626</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>54.92104941501628</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S25" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>74.87657654264467</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>51.84035121586518</v>
       </c>
       <c r="X25" t="n">
-        <v>206.4614817925754</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>25.21219900729524</v>
       </c>
       <c r="E28" t="n">
         <v>129.8027652540257</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H28" t="n">
-        <v>118.6124389162598</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>54.92104941501628</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>95.72014375311414</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>246.7800261198763</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D31" t="n">
-        <v>87.96534747998984</v>
+        <v>128.400756503981</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F31" t="n">
-        <v>133.4858729041767</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G31" t="n">
         <v>136.078945437374</v>
@@ -24858,7 +24858,7 @@
         <v>118.6124389162599</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>52.56154735369714</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>128.400756503981</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G34" t="n">
         <v>136.078945437374</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I34" t="n">
-        <v>85.68364371037904</v>
+        <v>52.56154735369714</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,19 +25125,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>250.471224252999</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>3.908791337046608</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25314,16 +25314,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>129.8027652540257</v>
+        <v>125.9579563468777</v>
       </c>
       <c r="F37" t="n">
-        <v>133.4858729041766</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25368,19 +25368,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>160.3557509840634</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>241.6479458835352</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="38">
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>139.8834969875626</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>128.400756503981</v>
@@ -25563,13 +25563,13 @@
         <v>133.4858729041766</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H40" t="n">
         <v>118.6124389162598</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>85.68364371037904</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>54.92104941501628</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>51.84035121586425</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>188.6404927910715</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>134.6847134965116</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>3.083197172521068</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25788,19 +25788,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
         <v>148.1113806425979</v>
@@ -25836,25 +25836,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>221.5920803845231</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>156.7553487017543</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -25879,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>49.19646844041381</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25924,10 +25924,10 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>62.56142803888662</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>379.922697856183</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,22 +26076,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>39.22463990372322</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>194.7158398879883</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>639778.8101623044</v>
+        <v>639778.8101623042</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>639778.8101623043</v>
+        <v>639778.8101623044</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>639778.8101623043</v>
+        <v>639778.8101623044</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>639778.8101623044</v>
+        <v>639778.8101623043</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>595493.4554580945</v>
+        <v>595493.4554580947</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>595493.4554580947</v>
+        <v>595493.4554580946</v>
       </c>
     </row>
   </sheetData>
@@ -26319,37 +26319,37 @@
         <v>586376.6149168452</v>
       </c>
       <c r="D2" t="n">
-        <v>586376.6149168453</v>
+        <v>586376.6149168452</v>
       </c>
       <c r="E2" t="n">
         <v>568257.9771323322</v>
       </c>
       <c r="F2" t="n">
-        <v>568257.9771323324</v>
+        <v>568257.9771323322</v>
       </c>
       <c r="G2" t="n">
-        <v>568257.9771323322</v>
+        <v>568257.9771323318</v>
       </c>
       <c r="H2" t="n">
         <v>568257.9771323322</v>
       </c>
       <c r="I2" t="n">
-        <v>568257.9771323319</v>
+        <v>568257.9771323317</v>
       </c>
       <c r="J2" t="n">
+        <v>568257.9771323317</v>
+      </c>
+      <c r="K2" t="n">
         <v>568257.977132332</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>568257.9771323318</v>
       </c>
-      <c r="L2" t="n">
-        <v>568257.9771323319</v>
-      </c>
       <c r="M2" t="n">
-        <v>568257.9771323319</v>
+        <v>568257.9771323323</v>
       </c>
       <c r="N2" t="n">
-        <v>568257.9771323319</v>
+        <v>568257.9771323318</v>
       </c>
       <c r="O2" t="n">
         <v>521367.601563169</v>
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>143124.2752108461</v>
+        <v>143124.2752108459</v>
       </c>
       <c r="C3" t="n">
-        <v>30686.46086668868</v>
+        <v>30686.46086668888</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>135342.0294691534</v>
+        <v>135342.0294691531</v>
       </c>
       <c r="K3" t="n">
-        <v>24445.77426110989</v>
+        <v>24445.77426111015</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>240285.7433202988</v>
+        <v>240285.7433202989</v>
       </c>
       <c r="C4" t="n">
         <v>222716.4087914901</v>
@@ -26435,7 +26435,7 @@
         <v>133638.8779954489</v>
       </c>
       <c r="H4" t="n">
-        <v>133638.877995449</v>
+        <v>133638.8779954489</v>
       </c>
       <c r="I4" t="n">
         <v>133638.8779954489</v>
@@ -26450,7 +26450,7 @@
         <v>133638.877995449</v>
       </c>
       <c r="M4" t="n">
-        <v>133638.877995449</v>
+        <v>133638.8779954489</v>
       </c>
       <c r="N4" t="n">
         <v>133638.877995449</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59594.05390742933</v>
+        <v>59594.0539074293</v>
       </c>
       <c r="C5" t="n">
         <v>65369.06507849755</v>
@@ -26478,10 +26478,10 @@
         <v>65369.06507849755</v>
       </c>
       <c r="E5" t="n">
-        <v>73345.15677686484</v>
+        <v>73345.15677686482</v>
       </c>
       <c r="F5" t="n">
-        <v>73345.15677686484</v>
+        <v>73345.15677686482</v>
       </c>
       <c r="G5" t="n">
         <v>73345.15677686482</v>
@@ -26490,13 +26490,13 @@
         <v>73345.15677686482</v>
       </c>
       <c r="I5" t="n">
+        <v>73345.15677686482</v>
+      </c>
+      <c r="J5" t="n">
+        <v>73345.15677686482</v>
+      </c>
+      <c r="K5" t="n">
         <v>73345.15677686484</v>
-      </c>
-      <c r="J5" t="n">
-        <v>73345.15677686484</v>
-      </c>
-      <c r="K5" t="n">
-        <v>73345.15677686482</v>
       </c>
       <c r="L5" t="n">
         <v>73345.15677686484</v>
@@ -26524,46 +26524,46 @@
         <v>143372.5424782711</v>
       </c>
       <c r="C6" t="n">
-        <v>267604.6801801689</v>
+        <v>267604.6801801687</v>
       </c>
       <c r="D6" t="n">
-        <v>298291.1410468577</v>
+        <v>298291.1410468576</v>
       </c>
       <c r="E6" t="n">
-        <v>145545.0260795048</v>
+        <v>145494.6965301035</v>
       </c>
       <c r="F6" t="n">
-        <v>361273.9423600186</v>
+        <v>361223.612810617</v>
       </c>
       <c r="G6" t="n">
-        <v>361273.9423600184</v>
+        <v>361223.6128106167</v>
       </c>
       <c r="H6" t="n">
-        <v>361273.9423600184</v>
+        <v>361223.612810617</v>
       </c>
       <c r="I6" t="n">
-        <v>361273.9423600181</v>
+        <v>361223.6128106166</v>
       </c>
       <c r="J6" t="n">
-        <v>225931.9128908649</v>
+        <v>225881.5833414634</v>
       </c>
       <c r="K6" t="n">
-        <v>336828.1680989082</v>
+        <v>336777.8385495067</v>
       </c>
       <c r="L6" t="n">
-        <v>361273.9423600181</v>
+        <v>361223.6128106166</v>
       </c>
       <c r="M6" t="n">
-        <v>200915.4918593355</v>
+        <v>200865.1623099344</v>
       </c>
       <c r="N6" t="n">
-        <v>361273.9423600181</v>
+        <v>361223.6128106166</v>
       </c>
       <c r="O6" t="n">
-        <v>346673.5427397158</v>
+        <v>346492.9621470666</v>
       </c>
       <c r="P6" t="n">
-        <v>346673.5427397157</v>
+        <v>346492.9621470665</v>
       </c>
     </row>
   </sheetData>
@@ -26694,25 +26694,25 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F2" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G2" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H2" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I2" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J2" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="L2" t="n">
         <v>29.49894172633805</v>
@@ -26724,7 +26724,7 @@
         <v>29.49894172633806</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.039613253960852e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>427.079834003772</v>
+        <v>427.0798340037714</v>
       </c>
       <c r="C4" t="n">
         <v>522.0635703700256</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,10 +26931,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>427.079834003772</v>
+        <v>427.0798340037714</v>
       </c>
       <c r="C4" t="n">
-        <v>94.98373636625354</v>
+        <v>94.98373636625416</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>427.079834003772</v>
+        <v>427.0798340037714</v>
       </c>
       <c r="K4" t="n">
-        <v>94.98373636625354</v>
+        <v>94.98373636625416</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,10 +27168,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>427.079834003772</v>
+        <v>427.0798340037714</v>
       </c>
       <c r="K4" t="n">
-        <v>94.98373636625354</v>
+        <v>94.98373636625416</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27390,16 +27390,16 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>248.5202020389656</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>19.77330487063408</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27466,16 +27466,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G3" t="n">
-        <v>34.33557902776212</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>35.53450366443852</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27514,7 +27514,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>80.07895743361158</v>
       </c>
       <c r="C4" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>156.1658801623714</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
         <v>159.3017069803637</v>
@@ -27554,7 +27554,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27599,10 +27599,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>222.4883416251229</v>
@@ -27618,10 +27618,10 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,7 +27630,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>246.8570694469651</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27675,16 +27675,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>54.52345692773838</v>
       </c>
     </row>
     <row r="6">
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>85.89384447826502</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>47.49970898244663</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>345.3182608610895</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27906,10 +27906,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>199.8081476841745</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
         <v>346.3391791168841</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
         <v>169.3824387139007</v>
@@ -28019,19 +28019,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>134.9699070214187</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28067,13 +28067,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>50.12434448893407</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
         <v>235.9604235189134</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C11" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D11" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E11" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F11" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G11" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H11" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I11" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T11" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U11" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V11" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W11" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X11" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y11" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C13" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D13" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E13" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F13" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G13" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H13" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I13" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J13" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K13" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="L13" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="M13" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="N13" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="O13" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="P13" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="R13" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="S13" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T13" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U13" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V13" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W13" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X13" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y13" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C14" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D14" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E14" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F14" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G14" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H14" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I14" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T14" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U14" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V14" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W14" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X14" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y14" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C16" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D16" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E16" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F16" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G16" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H16" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I16" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J16" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K16" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="L16" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="M16" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="N16" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="O16" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="P16" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="R16" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="S16" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T16" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U16" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V16" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W16" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X16" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y16" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="17">
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C17" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D17" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E17" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F17" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G17" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H17" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I17" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T17" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U17" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V17" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W17" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X17" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y17" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C19" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D19" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E19" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F19" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G19" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H19" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I19" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J19" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K19" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="L19" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="M19" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="N19" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="O19" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="P19" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="R19" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="S19" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T19" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U19" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V19" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W19" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X19" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y19" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C20" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D20" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E20" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F20" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G20" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H20" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I20" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T20" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U20" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V20" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W20" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X20" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y20" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C22" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D22" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E22" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F22" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G22" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H22" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I22" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J22" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K22" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="L22" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="M22" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="N22" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="O22" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="P22" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="R22" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="S22" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T22" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U22" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V22" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W22" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X22" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y22" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="23">
@@ -29037,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633748</v>
       </c>
       <c r="Y23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="L25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="M25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="N25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="O25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="P25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="R25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="S25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="26">
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C26" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D26" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E26" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F26" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G26" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H26" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I26" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T26" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U26" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V26" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W26" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X26" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y26" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C28" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D28" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E28" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F28" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G28" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H28" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I28" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J28" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K28" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="L28" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="M28" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="N28" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="O28" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="P28" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="R28" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="S28" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T28" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U28" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V28" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W28" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X28" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y28" t="n">
-        <v>29.49894172633806</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="29">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="K31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="L31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="M31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="N31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="O31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="P31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="R31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="S31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="32">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>6.039613253960852e-14</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>6.039613253960852e-14</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>6.039613253960852e-14</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>6.039613253960852e-14</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>6.039613253960852e-14</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>6.039613253960852e-14</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>6.039613253960852e-14</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>6.039613253960852e-14</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>6.039613253960852e-14</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>6.039613253960852e-14</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>6.039613253960852e-14</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>6.039613253960852e-14</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>6.039613253960852e-14</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>6.039613253960852e-14</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>6.039613253960852e-14</v>
       </c>
     </row>
     <row r="42">
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>85.4190257659511</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>427.079834003772</v>
+        <v>427.0798340037714</v>
       </c>
       <c r="L2" t="n">
-        <v>427.079834003772</v>
+        <v>427.0798340037714</v>
       </c>
       <c r="M2" t="n">
-        <v>427.079834003772</v>
+        <v>427.0798340037714</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>112.104772875014</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -34719,10 +34719,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>26.58773561310109</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>427.079834003772</v>
+        <v>427.0798340037714</v>
       </c>
       <c r="L3" t="n">
-        <v>427.079834003772</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>427.079834003772</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>258.9071074323941</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>427.0798340037714</v>
       </c>
       <c r="Q3" t="n">
         <v>353.3782471555388</v>
@@ -34935,16 +34935,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>176.5650354103358</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>400.909295520443</v>
       </c>
       <c r="N5" t="n">
         <v>522.0635703700256</v>
@@ -34953,13 +34953,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="P5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
         <v>460.4103598639381</v>
@@ -35023,19 +35023,19 @@
         <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>14.48459394538821</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N6" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
       <c r="Q6" t="n">
-        <v>40.55973291537975</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>500.9700927793178</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M8" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M9" t="n">
-        <v>522.0635703700256</v>
+        <v>445.0368534430334</v>
       </c>
       <c r="N9" t="n">
         <v>522.0635703700256</v>
@@ -35272,7 +35272,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.70163254908682</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
         <v>29.85810036629282</v>
@@ -35433,7 +35433,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,19 +35494,19 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>360.9878040976428</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
         <v>353.3782471555388</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>43.72373910533858</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K13" t="n">
-        <v>185.612404072033</v>
+        <v>185.6124040720329</v>
       </c>
       <c r="L13" t="n">
         <v>292.0212652415507</v>
       </c>
       <c r="M13" t="n">
-        <v>321.6848573227959</v>
+        <v>321.6848573227958</v>
       </c>
       <c r="N13" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O13" t="n">
-        <v>291.6813763995443</v>
+        <v>291.6813763995442</v>
       </c>
       <c r="P13" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.68887081978335</v>
+        <v>95.68887081978329</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>26.64359211279304</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
         <v>29.85810036629282</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>43.72373910533858</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K16" t="n">
-        <v>185.612404072033</v>
+        <v>185.6124040720329</v>
       </c>
       <c r="L16" t="n">
         <v>292.0212652415507</v>
       </c>
       <c r="M16" t="n">
-        <v>321.6848573227959</v>
+        <v>321.6848573227958</v>
       </c>
       <c r="N16" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O16" t="n">
-        <v>291.6813763995443</v>
+        <v>291.6813763995442</v>
       </c>
       <c r="P16" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q16" t="n">
-        <v>95.68887081978335</v>
+        <v>95.68887081978329</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>256.7530014825784</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
         <v>543.5954556656965</v>
@@ -35965,19 +35965,19 @@
         <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>69.15948384215687</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>567.3796893823536</v>
@@ -35986,7 +35986,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>43.72373910533858</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K19" t="n">
-        <v>185.612404072033</v>
+        <v>185.6124040720329</v>
       </c>
       <c r="L19" t="n">
         <v>292.0212652415507</v>
       </c>
       <c r="M19" t="n">
-        <v>321.6848573227959</v>
+        <v>321.6848573227958</v>
       </c>
       <c r="N19" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O19" t="n">
-        <v>291.6813763995443</v>
+        <v>291.6813763995442</v>
       </c>
       <c r="P19" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q19" t="n">
-        <v>95.68887081978335</v>
+        <v>95.68887081978329</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R20" t="n">
-        <v>40.96630877733737</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>460.4103598639381</v>
@@ -36208,19 +36208,19 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M21" t="n">
-        <v>3.298283025005639</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O21" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>26.64359211279304</v>
       </c>
       <c r="R21" t="n">
         <v>29.85810036629282</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>43.72373910533858</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K22" t="n">
-        <v>185.612404072033</v>
+        <v>185.6124040720329</v>
       </c>
       <c r="L22" t="n">
         <v>292.0212652415507</v>
       </c>
       <c r="M22" t="n">
-        <v>321.6848573227959</v>
+        <v>321.6848573227958</v>
       </c>
       <c r="N22" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O22" t="n">
-        <v>291.6813763995443</v>
+        <v>291.6813763995442</v>
       </c>
       <c r="P22" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q22" t="n">
-        <v>95.68887081978335</v>
+        <v>95.68887081978329</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R23" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>43.72373910533858</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K25" t="n">
-        <v>185.612404072033</v>
+        <v>185.6124040720329</v>
       </c>
       <c r="L25" t="n">
         <v>292.0212652415507</v>
       </c>
       <c r="M25" t="n">
-        <v>321.6848573227959</v>
+        <v>321.6848573227958</v>
       </c>
       <c r="N25" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O25" t="n">
-        <v>291.6813763995443</v>
+        <v>291.6813763995442</v>
       </c>
       <c r="P25" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q25" t="n">
-        <v>95.68887081978335</v>
+        <v>95.68887081978329</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M27" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>43.72373910533858</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K28" t="n">
-        <v>185.612404072033</v>
+        <v>185.6124040720329</v>
       </c>
       <c r="L28" t="n">
         <v>292.0212652415507</v>
       </c>
       <c r="M28" t="n">
-        <v>321.6848573227959</v>
+        <v>321.6848573227958</v>
       </c>
       <c r="N28" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O28" t="n">
-        <v>291.6813763995443</v>
+        <v>291.6813763995442</v>
       </c>
       <c r="P28" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q28" t="n">
-        <v>95.68887081978335</v>
+        <v>95.68887081978329</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M30" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533858</v>
       </c>
       <c r="K31" t="n">
-        <v>185.6124040720329</v>
+        <v>185.612404072033</v>
       </c>
       <c r="L31" t="n">
         <v>292.0212652415507</v>
       </c>
       <c r="M31" t="n">
-        <v>321.6848573227958</v>
+        <v>321.6848573227959</v>
       </c>
       <c r="N31" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O31" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995443</v>
       </c>
       <c r="P31" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q31" t="n">
-        <v>95.68887081978329</v>
+        <v>95.68887081978335</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37150,28 +37150,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>807.9543263212012</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K35" t="n">
         <v>543.5954556656965</v>
@@ -37329,7 +37329,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R35" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M36" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>151.2227878040968</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>163.5338051874855</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
         <v>543.5954556656965</v>
@@ -37864,25 +37864,25 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>91.08941569106823</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O42" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P42" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38037,7 +38037,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
         <v>40.9663087773382</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>207.1197339838565</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="Q45" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
